--- a/data/metadataNestedExample.xlsx
+++ b/data/metadataNestedExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelalfaro/lastdance/UTILS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3771B39-BA79-284B-85BA-056B4F3F72EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C7F771-E0C2-024E-9C32-B9AEDBA60278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" activeTab="2" xr2:uid="{391C36CF-4B77-184C-BD7F-48418AA6A85D}"/>
   </bookViews>
@@ -619,7 +619,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -660,6 +660,9 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
